--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmieshkov/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmieshkov/Projects/IdeaProjects/maven-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2241D38-1C73-824E-AE08-4DE42F527DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6E7F3A-943B-744F-931E-F8A74C46F6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14900" xr2:uid="{D314736C-6C1D-714F-BE4D-547787CC17F1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>TestCases</t>
   </si>
@@ -71,19 +71,19 @@
     <t>Data3.1</t>
   </si>
   <si>
-    <t>Data4.1</t>
-  </si>
-  <si>
-    <t>Data4.2</t>
-  </si>
-  <si>
-    <t>Data4.3</t>
-  </si>
-  <si>
     <t>Data3.2</t>
   </si>
   <si>
     <t>Data3.3</t>
+  </si>
+  <si>
+    <t>col1</t>
+  </si>
+  <si>
+    <t>col2</t>
+  </si>
+  <si>
+    <t>col3</t>
   </si>
 </sst>
 </file>
@@ -113,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -121,12 +121,121 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +553,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,74 +561,74 @@
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
+      <c r="C4" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
